--- a/StructureDefinition-austrian-patient.xlsx
+++ b/StructureDefinition-austrian-patient.xlsx
@@ -651,7 +651,7 @@
     <t>PatientReligion</t>
   </si>
   <si>
-    <t xml:space="preserve">Extension {http://hl7.at/fhir/4.0/HL7ATBaseProfiles/StructureDefinition/patientReligion}
+    <t xml:space="preserve">Extension {http://hl7.at/fhir/4.0.1/HL7ATCoreProfiles/StructureDefinition/patientReligion}
 </t>
   </si>
   <si>
@@ -1205,7 +1205,7 @@
     <t>Patient.address</t>
   </si>
   <si>
-    <t xml:space="preserve">Address {http://hl7.at/fhir/4.0/HL7ATBaseProfiles/StructureDefinition/AustrianRepresentationOfAddress}
+    <t xml:space="preserve">Address {http://hl7.at/fhir/4.0.1/HL7ATCoreProfiles/StructureDefinition/AustrianRepresentationOfAddress}
 </t>
   </si>
   <si>

--- a/StructureDefinition-austrian-patient.xlsx
+++ b/StructureDefinition-austrian-patient.xlsx
@@ -651,7 +651,7 @@
     <t>PatientReligion</t>
   </si>
   <si>
-    <t xml:space="preserve">Extension {http://hl7.at/fhir/4.0.1/HL7ATCoreProfiles/StructureDefinition/patientReligion}
+    <t xml:space="preserve">Extension {http://hl7.at/fhir/HL7ATCoreProfiles/4.0.1/StructureDefinition/patientReligion}
 </t>
   </si>
   <si>
@@ -997,7 +997,7 @@
     <t>This is generally not the same as the Resource.text of the referenced resource.  The purpose is to identify what's being referenced, not to fully describe it.</t>
   </si>
   <si>
-    <t>Hauptverband der österreichischen Sozialversicherungsträger</t>
+    <t>Dachverband der österreichischen Sozialversicherungsträger</t>
   </si>
   <si>
     <t>Reference.display</t>
@@ -1205,7 +1205,7 @@
     <t>Patient.address</t>
   </si>
   <si>
-    <t xml:space="preserve">Address {http://hl7.at/fhir/4.0.1/HL7ATCoreProfiles/StructureDefinition/AustrianRepresentationOfAddress}
+    <t xml:space="preserve">Address {http://hl7.at/fhir/HL7ATCoreProfiles/4.0.1/StructureDefinition/AustrianRepresentationOfAddress}
 </t>
   </si>
   <si>
@@ -1222,7 +1222,7 @@
   </si>
   <si>
     <t>ele-1:All FHIR elements must have a @value or children {hasValue() or (children().count() &gt; id.count())}
-at-addr-1:If the extension for street name is used then the value for line must not be empty {line.all($this.extension('http://hl7.org/fhir/StructureDefinition/iso21090-ADXP-streetName').empty() or $this.hasValue())}at-addr-2:If the extension for street number is used then the value for line must not be empty {line.all($this.extension('http://hl7.org/fhir/StructureDefinition/iso21090-ADXP-houseNumber').empty() or $this.hasValue())}at-addr-3:If the extensions for floor/door number or additional information are used then the value for line must not be empty {line.all($this.extension('http://hl7.org/fhir/StructureDefinition/iso21090-ADXP-additionalLocator').empty() or $this.hasValue())}</t>
+at-addr-1:If the extension for street name is used then the value for line must not be empty {line.all($this.extension('http://hl7.org/fhir/StructureDefinition/iso21090-ADXP-streetName').empty() or $this.hasValue())}at-addr-2:If the extension for street number is used then the value for line must not be empty {line.all($this.extension('http://hl7.org/fhir/StructureDefinition/iso21090-ADXP-houseNumber').empty() or $this.hasValue())}at-addr-3:If the extension for floor/door number is used then the value for line must not be empty {line.all($this.extension('http://hl7.org/fhir/StructureDefinition/iso21090-ADXP-additionalLocator').empty() or $this.hasValue())}</t>
   </si>
   <si>
     <t>AD</t>
